--- a/biology/Botanique/Callistopteris/Callistopteris.xlsx
+++ b/biology/Botanique/Callistopteris/Callistopteris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callistopteris est un genre de fougères de la famille des Hyménophyllacées. 
 </t>
@@ -511,12 +523,14 @@
           <t>Historique du genre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit une première fois par Edwin Bingham Copeland en 1938[1]. Il l'a dénommé ainsi en raison de l'élégance des frondes de ces fougères.
-Conrad Vernon Morton le place en section de Trichomanes subg. Pachychaetum en 1968[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit une première fois par Edwin Bingham Copeland en 1938. Il l'a dénommé ainsi en raison de l'élégance des frondes de ces fougères.
+Conrad Vernon Morton le place en section de Trichomanes subg. Pachychaetum en 1968.
 Kunio Iwatsuki le place en sous-genre du genre Cephalomanes en 1984.
-Enfin, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito le replacent en genre à part entière en 2006 sur la base d'études de phylogénétique moléculaire[3].
+Enfin, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito le replacent en genre à part entière en 2006 sur la base d'études de phylogénétique moléculaire.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description[3]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces fougères possèdent un court rhizome, assez épais et avec une épaisse pilosité. Les racines sont présentes, nombreuses et robustes.
 Le stipe, le pétiole ainsi que le rachis (nervure principale du limbe) sont couverts de poils longs et bruns.
@@ -580,7 +596,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est principalement localisé dans le Pacifique équatorial et tropical avec une espèce en Amérique du Sud.
 Ces espèces croissent à même les rochers humides et parfois sur les troncs d'arbre.
@@ -615,7 +633,9 @@
           <t>Liste des espèces[4]</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le genre compte 5 ou 6 espèces selon que les espèces Callistopteris apiifolia et Callistopteris baueriana sont considérées ou non comme synonymes.
 Callistopteris apiifolia (C.Presl) Copel. (1938) - Chine, sud-est de l'Asie, Malaisie, Indonésie, Polynésie (Synonymes : Cephalomanes apiifolium (C.Presl) K.Iwats., Trichomanes apiifolium C.Presl, Trichomanes eminens C.Presl, Trichomanes meifolium Blume - non Bory, Trichomanes myrioplasium Kunze) ; il s'agit de l'espèce type du genre
